--- a/code/vocab_csv/p7012.xlsx
+++ b/code/vocab_csv/p7012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="721">
   <si>
     <t>Term</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>Privacy Agents can be human or non-human i.e. machine agents</t>
+  </si>
+  <si>
+    <t>hasHumanDescription</t>
+  </si>
+  <si>
+    <t>has human description</t>
+  </si>
+  <si>
+    <t>A description intended for humans</t>
   </si>
   <si>
     <t>Agreement</t>
@@ -775,6 +784,36 @@
     <t>Term that indicates access to data is being provided for the purposes of Public Good</t>
   </si>
   <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>Trusted Personal Relationship</t>
+  </si>
+  <si>
+    <t>Term that indicates the agreement is between two individual humans regarding services, communication, or other activities as mutually agreed within the agreement</t>
+  </si>
+  <si>
+    <t>p7012:DataSharingDisallowed</t>
+  </si>
+  <si>
+    <t>TPR-IDENTITY-REF</t>
+  </si>
+  <si>
+    <t>Trusted Personal Relationship - Identity Reference</t>
+  </si>
+  <si>
+    <t>Term that indicates an agreement that establishes the identity of a person through an agreement with another human who validates or vouches for the stated identity as belonging to the associated human</t>
+  </si>
+  <si>
+    <t>p7012:TPR</t>
+  </si>
+  <si>
+    <t>dpv:IdentityVerification</t>
+  </si>
+  <si>
+    <t>HumanDescription</t>
+  </si>
+  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -1390,6 +1429,9 @@
     <t>Term that indicates portability of data from service provider to individual</t>
   </si>
   <si>
+    <t>Data portability means that you are entitled to ask organisations that hold records about you (your personal data) to be sent in a modern, useful format either to you directly, or to another organisation/ app that you nominate. Examples of that might be your bank transactions (via Open Banking or similar), your home energy use, your vehicle use and many more.</t>
+  </si>
+  <si>
     <t>PortabilityRequired</t>
   </si>
   <si>
@@ -1691,6 +1733,48 @@
   </si>
   <si>
     <t>p7012:DataTransparencyTerm</t>
+  </si>
+  <si>
+    <t>DataDeletionTerm</t>
+  </si>
+  <si>
+    <t>Data Deletion Term</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion regarding data as an obligation</t>
+  </si>
+  <si>
+    <t>DataDeletionRequired</t>
+  </si>
+  <si>
+    <t>Data Deletion Required</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion of data is required after all associated (approved) processing is completed</t>
+  </si>
+  <si>
+    <t>p7012:DataDeletionTerm,dpv:Obligation</t>
+  </si>
+  <si>
+    <t>DataDeletionOnRequest</t>
+  </si>
+  <si>
+    <t>Data Deletion on Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term that indicates deletion of data is required upon request </t>
+  </si>
+  <si>
+    <t>DataDeletionNotRequired</t>
+  </si>
+  <si>
+    <t>Data Deletion Not Required</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion of data is not required as an obligation</t>
+  </si>
+  <si>
+    <t>p7012:DataDeletionTerm</t>
   </si>
   <si>
     <t>Agreement ID</t>
@@ -2312,6 +2396,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2320,9 +2407,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -5203,17 +5287,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="D2" s="25"/>
+        <v>671</v>
+      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="5" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -5247,17 +5331,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -5291,17 +5375,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -5398,8 +5482,8 @@
       <c r="AD6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>651</v>
+      <c r="A7" s="25" t="s">
+        <v>679</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5433,10 +5517,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -5446,16 +5530,16 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -7552,8 +7636,8 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>657</v>
+      <c r="A2" s="25" t="s">
+        <v>685</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7588,36 +7672,36 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>689</v>
+      </c>
+      <c r="K4" s="23"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="K5" s="26">
+        <v>693</v>
+      </c>
+      <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
@@ -7626,19 +7710,19 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="K6" s="26">
+        <v>697</v>
+      </c>
+      <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
@@ -7647,19 +7731,19 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="K7" s="26">
+        <v>701</v>
+      </c>
+      <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
@@ -7668,19 +7752,19 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="K8" s="26">
+        <v>389</v>
+      </c>
+      <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
@@ -7689,19 +7773,19 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K9" s="26">
+        <v>399</v>
+      </c>
+      <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
@@ -7710,19 +7794,19 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="K10" s="26">
+        <v>418</v>
+      </c>
+      <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -7731,19 +7815,19 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K11" s="26">
+        <v>458</v>
+      </c>
+      <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
@@ -7752,19 +7836,19 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="K12" s="26">
+        <v>717</v>
+      </c>
+      <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
@@ -7773,19 +7857,19 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="K13" s="26">
+        <v>506</v>
+      </c>
+      <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
@@ -10199,7 +10283,22 @@
       <c r="AE9" s="12"/>
     </row>
     <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" s="15"/>
+      <c r="K10" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="D11" s="15"/>
@@ -12292,16 +12391,16 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>19</v>
@@ -12315,13 +12414,13 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K3" s="8">
         <v>45643.0</v>
@@ -12332,16 +12431,16 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>19</v>
@@ -12355,16 +12454,16 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>19</v>
@@ -12378,16 +12477,16 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>19</v>
@@ -12401,16 +12500,16 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>19</v>
@@ -12424,16 +12523,16 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>19</v>
@@ -12447,25 +12546,25 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -14518,17 +14617,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
@@ -14562,19 +14661,19 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -14608,17 +14707,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -14652,17 +14751,17 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
@@ -14695,17 +14794,17 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="12"/>
@@ -14738,17 +14837,17 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5"/>
       <c r="K7" s="8">
@@ -14761,17 +14860,17 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="8">
@@ -14784,20 +14883,20 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K9" s="8">
         <v>45643.0</v>
@@ -16850,14 +16949,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>157</v>
+      <c r="F1" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -16906,12 +17005,12 @@
       <c r="AG1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>158</v>
+      <c r="A2" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16944,15 +17043,15 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -16985,13 +17084,13 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -17024,13 +17123,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -17063,13 +17162,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -17102,13 +17201,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -17141,13 +17240,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -17180,13 +17279,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -17219,64 +17318,64 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>189</v>
+      <c r="A15" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N16" s="26">
+        <v>196</v>
+      </c>
+      <c r="N16" s="23">
         <v>45643.0</v>
       </c>
       <c r="P16" s="14" t="s">
@@ -17285,27 +17384,27 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="H17" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="26">
+        <v>201</v>
+      </c>
+      <c r="N17" s="23">
         <v>45643.0</v>
       </c>
       <c r="P17" s="14" t="s">
@@ -17314,30 +17413,30 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="26">
+        <v>196</v>
+      </c>
+      <c r="N18" s="23">
         <v>45643.0</v>
       </c>
       <c r="P18" s="14" t="s">
@@ -17346,30 +17445,30 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="G19" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N19" s="26">
+        <v>201</v>
+      </c>
+      <c r="N19" s="23">
         <v>45643.0</v>
       </c>
       <c r="P19" s="14" t="s">
@@ -17378,30 +17477,30 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N20" s="26">
+        <v>196</v>
+      </c>
+      <c r="N20" s="23">
         <v>45643.0</v>
       </c>
       <c r="P20" s="14" t="s">
@@ -17410,30 +17509,30 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="G21" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N21" s="26">
+        <v>201</v>
+      </c>
+      <c r="N21" s="23">
         <v>45643.0</v>
       </c>
       <c r="P21" s="14" t="s">
@@ -17442,30 +17541,30 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N22" s="26">
+        <v>196</v>
+      </c>
+      <c r="N22" s="23">
         <v>45643.0</v>
       </c>
       <c r="P22" s="14" t="s">
@@ -17474,30 +17573,30 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="G23" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>223</v>
-      </c>
       <c r="H23" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N23" s="26">
+        <v>201</v>
+      </c>
+      <c r="N23" s="23">
         <v>45643.0</v>
       </c>
       <c r="P23" s="14" t="s">
@@ -17506,30 +17605,30 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N24" s="26">
+        <v>196</v>
+      </c>
+      <c r="N24" s="23">
         <v>45643.0</v>
       </c>
       <c r="P24" s="14" t="s">
@@ -17538,30 +17637,30 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="G25" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N25" s="26">
+        <v>201</v>
+      </c>
+      <c r="N25" s="23">
         <v>45643.0</v>
       </c>
       <c r="P25" s="14" t="s">
@@ -17571,26 +17670,28 @@
     <row r="26">
       <c r="D26" s="15"/>
       <c r="E26" s="5"/>
-      <c r="N26" s="26"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27">
       <c r="D27" s="15"/>
       <c r="E27" s="5"/>
-      <c r="N27" s="26"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="5"/>
-      <c r="N28" s="26">
+      <c r="E28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="23">
         <v>45643.0</v>
       </c>
       <c r="P28" s="14" t="s">
@@ -17599,21 +17700,21 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="26">
+        <v>128</v>
+      </c>
+      <c r="N29" s="23">
         <v>45643.0</v>
       </c>
       <c r="P29" s="14" t="s">
@@ -17622,21 +17723,21 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="26">
+        <v>128</v>
+      </c>
+      <c r="N30" s="23">
         <v>45643.0</v>
       </c>
       <c r="P30" s="14" t="s">
@@ -17645,24 +17746,76 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="26">
+        <v>128</v>
+      </c>
+      <c r="N31" s="23">
         <v>45643.0</v>
       </c>
       <c r="P31" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="N33" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="N34" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="P34" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -19618,7 +19771,7 @@
     <col customWidth="1" min="1" max="1" width="29.88"/>
     <col customWidth="1" min="2" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="3" width="69.88"/>
-    <col customWidth="1" min="9" max="9" width="43.13"/>
+    <col customWidth="1" min="10" max="10" width="43.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -19631,44 +19784,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -19682,24 +19837,25 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>250</v>
+      <c r="A2" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -19716,21 +19872,22 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
     </row>
     <row r="3">
       <c r="B3" s="4"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -19747,19 +19904,20 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>252</v>
+      <c r="A4" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>265</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>19</v>
@@ -19769,10 +19927,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -19789,29 +19947,30 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>255</v>
+      <c r="A5" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -19828,10 +19987,11 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
@@ -19840,10 +20000,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -19860,19 +20020,20 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>259</v>
+      <c r="A7" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -19882,10 +20043,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -19902,29 +20063,30 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -19941,29 +20103,30 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -19980,32 +20143,33 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -20022,32 +20186,33 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -20064,10 +20229,11 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
@@ -20076,10 +20242,10 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -20096,19 +20262,20 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>278</v>
+      <c r="A13" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>291</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>19</v>
@@ -20118,14 +20285,14 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="8">
+      <c r="K13" s="4"/>
+      <c r="L13" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -20142,33 +20309,34 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="8">
+      <c r="K14" s="4"/>
+      <c r="L14" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -20185,36 +20353,37 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="8">
+      <c r="K15" s="4"/>
+      <c r="L15" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -20231,33 +20400,34 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="8">
+      <c r="K16" s="4"/>
+      <c r="L16" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -20274,36 +20444,37 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="8">
+      <c r="K17" s="4"/>
+      <c r="L17" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -20320,1044 +20491,1045 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="8">
+        <v>296</v>
+      </c>
+      <c r="L19" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="8">
+        <v>304</v>
+      </c>
+      <c r="L21" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="K22" s="8"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>309</v>
+      <c r="A23" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>322</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="8">
+      <c r="L23" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="8">
+        <v>327</v>
+      </c>
+      <c r="L24" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="N24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="8">
+        <v>327</v>
+      </c>
+      <c r="L25" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="8">
+        <v>335</v>
+      </c>
+      <c r="L26" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K27" s="8">
+        <v>335</v>
+      </c>
+      <c r="L27" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="L28" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>318</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K29" s="8">
+        <v>327</v>
+      </c>
+      <c r="L29" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="N30" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K31" s="8">
+        <v>335</v>
+      </c>
+      <c r="L31" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32">
-      <c r="K32" s="8"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="8"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>340</v>
+      <c r="A33" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="N33" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K34" s="8">
+        <v>358</v>
+      </c>
+      <c r="L34" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K35" s="8">
+        <v>362</v>
+      </c>
+      <c r="L35" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="N35" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K36" s="8">
+        <v>362</v>
+      </c>
+      <c r="L36" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K37" s="8">
+        <v>358</v>
+      </c>
+      <c r="L37" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="N37" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K38" s="8">
+        <v>362</v>
+      </c>
+      <c r="L38" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="N38" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K39" s="8">
+        <v>358</v>
+      </c>
+      <c r="L39" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>353</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K40" s="8">
+        <v>362</v>
+      </c>
+      <c r="L40" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="N40" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K41" s="8">
+        <v>362</v>
+      </c>
+      <c r="L41" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="N41" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>371</v>
+      <c r="A43" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="8">
+      <c r="L43" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="N43" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="K44" s="8">
+        <v>389</v>
+      </c>
+      <c r="L44" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="N44" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="K45" s="8">
+        <v>389</v>
+      </c>
+      <c r="L45" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="N45" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" s="15"/>
-      <c r="K46" s="8"/>
-      <c r="M46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>381</v>
+      <c r="A47" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="8">
+      <c r="L47" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K48" s="8">
+        <v>399</v>
+      </c>
+      <c r="L48" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="N48" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K49" s="8">
+        <v>399</v>
+      </c>
+      <c r="L49" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="N49" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K50" s="8">
+        <v>399</v>
+      </c>
+      <c r="L50" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="N50" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K51" s="8">
+        <v>399</v>
+      </c>
+      <c r="L51" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="N51" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K52" s="8">
+        <v>399</v>
+      </c>
+      <c r="L52" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" s="15"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="8"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>400</v>
+      <c r="A54" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="N54" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>403</v>
+      <c r="A55" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="N55" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K56" s="8">
+        <v>422</v>
+      </c>
+      <c r="L56" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="N56" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K57" s="8">
+        <v>422</v>
+      </c>
+      <c r="L57" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="N57" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K58" s="8">
+        <v>422</v>
+      </c>
+      <c r="L58" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="N58" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K59" s="8">
+        <v>422</v>
+      </c>
+      <c r="L59" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="N59" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>422</v>
+      <c r="A60" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>435</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="8">
+      <c r="L60" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="N60" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K61" s="8">
+        <v>440</v>
+      </c>
+      <c r="L61" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="N61" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K62" s="8">
+        <v>440</v>
+      </c>
+      <c r="L62" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="N62" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K63" s="8">
+        <v>440</v>
+      </c>
+      <c r="L63" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="N63" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K64" s="8">
+        <v>440</v>
+      </c>
+      <c r="L64" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="N64" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="D65" s="15"/>
-      <c r="K65" s="8"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="8"/>
+      <c r="N65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>440</v>
+      <c r="A66" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>453</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="8">
+      <c r="L66" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="N66" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K67" s="8">
+        <v>458</v>
+      </c>
+      <c r="L67" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="N67" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K68" s="8">
+        <v>458</v>
+      </c>
+      <c r="L68" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="N68" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K69" s="8">
+        <v>458</v>
+      </c>
+      <c r="L69" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="N69" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -21365,34 +21537,36 @@
       <c r="D70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>453</v>
+      <c r="A71" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>466</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="8">
+      <c r="K71" s="4"/>
+      <c r="L71" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
@@ -21409,34 +21583,34 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D72" s="25"/>
+        <v>471</v>
+      </c>
+      <c r="D72" s="26"/>
       <c r="E72" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="8">
+      <c r="K72" s="4"/>
+      <c r="L72" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="4"/>
+      <c r="N72" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
@@ -21453,36 +21627,37 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="8">
+      <c r="K73" s="4"/>
+      <c r="L73" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="4"/>
+      <c r="N73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -21499,36 +21674,37 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="8">
+      <c r="K74" s="4"/>
+      <c r="L74" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="4"/>
+      <c r="N74" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
@@ -21545,36 +21721,37 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="8">
+      <c r="K75" s="4"/>
+      <c r="L75" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="4"/>
+      <c r="N75" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
@@ -21591,34 +21768,35 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="8">
+      <c r="K76" s="4"/>
+      <c r="L76" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="4"/>
+      <c r="N76" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -21635,6 +21813,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
@@ -21647,10 +21826,10 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="5"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -21667,19 +21846,20 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>473</v>
+      <c r="A78" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>487</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>19</v>
@@ -21689,14 +21869,14 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="8">
+      <c r="K78" s="4"/>
+      <c r="L78" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="4"/>
+      <c r="N78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -21713,528 +21893,529 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K79" s="8">
+        <v>492</v>
+      </c>
+      <c r="L79" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="4"/>
+      <c r="N79" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K80" s="8">
+        <v>492</v>
+      </c>
+      <c r="L80" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="N80" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K81" s="8">
+        <v>492</v>
+      </c>
+      <c r="L81" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K82" s="8">
+        <v>492</v>
+      </c>
+      <c r="L82" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="N82" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="K83" s="8">
+        <v>506</v>
+      </c>
+      <c r="L83" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="N83" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="84">
-      <c r="K84" s="8"/>
-      <c r="M84" s="5"/>
+      <c r="L84" s="8"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>494</v>
+      <c r="A85" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>508</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K85" s="8">
+      <c r="L85" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="N85" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K86" s="8">
+        <v>513</v>
+      </c>
+      <c r="L86" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="4"/>
+      <c r="N86" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K87" s="8">
+        <v>513</v>
+      </c>
+      <c r="L87" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="N87" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K88" s="8">
+        <v>513</v>
+      </c>
+      <c r="L88" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="N88" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K89" s="8">
+        <v>513</v>
+      </c>
+      <c r="L89" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="N89" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="K90" s="8">
+        <v>527</v>
+      </c>
+      <c r="L90" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="N90" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="91">
-      <c r="K91" s="8"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="8"/>
+      <c r="N91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>515</v>
+      <c r="A92" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>529</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K92" s="8">
+      <c r="L92" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="N92" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K93" s="8">
+        <v>534</v>
+      </c>
+      <c r="L93" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="4"/>
+      <c r="N93" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K94" s="8">
+        <v>534</v>
+      </c>
+      <c r="L94" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="N94" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" s="8">
+        <v>534</v>
+      </c>
+      <c r="L95" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="N95" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K96" s="8">
+        <v>534</v>
+      </c>
+      <c r="L96" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="N96" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="K97" s="8">
+        <v>548</v>
+      </c>
+      <c r="L97" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="N97" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="98">
-      <c r="K98" s="8"/>
-      <c r="M98" s="5"/>
+      <c r="L98" s="8"/>
+      <c r="N98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>536</v>
+      <c r="A99" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>550</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="8">
+      <c r="L99" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="N99" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K100" s="8">
+        <v>555</v>
+      </c>
+      <c r="L100" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L100" s="4"/>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="4"/>
+      <c r="N100" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K101" s="8">
+        <v>555</v>
+      </c>
+      <c r="L101" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="N101" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K102" s="8">
+        <v>555</v>
+      </c>
+      <c r="L102" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="N102" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K103" s="8">
+        <v>555</v>
+      </c>
+      <c r="L103" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="N103" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="K104" s="8">
+        <v>569</v>
+      </c>
+      <c r="L104" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="N104" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -22242,16 +22423,90 @@
       <c r="D105" s="15"/>
     </row>
     <row r="106">
-      <c r="D106" s="15"/>
+      <c r="A106" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="107">
+      <c r="A107" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>575</v>
+      </c>
       <c r="D107" s="15"/>
+      <c r="E107" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="L107" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="108">
+      <c r="A108" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>579</v>
+      </c>
       <c r="D108" s="15"/>
+      <c r="E108" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="L108" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="109">
+      <c r="A109" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>582</v>
+      </c>
       <c r="D109" s="15"/>
+      <c r="E109" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="L109" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="110">
       <c r="D110" s="15"/>
@@ -24040,28 +24295,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
@@ -24083,7 +24338,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -24095,267 +24350,267 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -24367,121 +24622,121 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="40" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="32"/>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>573</v>
+      <c r="A18" s="25" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="s">
-        <v>566</v>
+      <c r="A21" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22">
@@ -27532,22 +27787,22 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>577</v>
+      <c r="A2" s="25" t="s">
+        <v>605</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="23">
         <v>45643.0</v>
       </c>
       <c r="M2" s="14" t="s">
@@ -27556,18 +27811,18 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K3" s="26">
+        <v>612</v>
+      </c>
+      <c r="K3" s="23">
         <v>45643.0</v>
       </c>
       <c r="M3" s="14" t="s">
@@ -27576,18 +27831,18 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K4" s="26">
+        <v>612</v>
+      </c>
+      <c r="K4" s="23">
         <v>45643.0</v>
       </c>
       <c r="M4" s="14" t="s">
@@ -27596,18 +27851,18 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K5" s="26">
+        <v>612</v>
+      </c>
+      <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
@@ -27616,18 +27871,18 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K6" s="26">
+        <v>612</v>
+      </c>
+      <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
@@ -27636,18 +27891,18 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K7" s="26">
+        <v>612</v>
+      </c>
+      <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
@@ -27656,18 +27911,18 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K8" s="26">
+        <v>612</v>
+      </c>
+      <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
@@ -27676,18 +27931,18 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K9" s="26">
+        <v>612</v>
+      </c>
+      <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
@@ -27696,18 +27951,18 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K10" s="26">
+        <v>612</v>
+      </c>
+      <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
@@ -27716,18 +27971,18 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K11" s="26">
+        <v>612</v>
+      </c>
+      <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
@@ -27736,18 +27991,18 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K12" s="26">
+        <v>612</v>
+      </c>
+      <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
@@ -27756,19 +28011,19 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K13" s="26">
+        <v>612</v>
+      </c>
+      <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
@@ -27777,19 +28032,19 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K14" s="26">
+        <v>612</v>
+      </c>
+      <c r="K14" s="23">
         <v>45643.0</v>
       </c>
       <c r="M14" s="14" t="s">
@@ -27798,19 +28053,19 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K15" s="26">
+        <v>612</v>
+      </c>
+      <c r="K15" s="23">
         <v>45643.0</v>
       </c>
       <c r="M15" s="14" t="s">
@@ -27819,19 +28074,19 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K16" s="26">
+        <v>612</v>
+      </c>
+      <c r="K16" s="23">
         <v>45643.0</v>
       </c>
       <c r="M16" s="14" t="s">
@@ -27848,7 +28103,7 @@
       <c r="D19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21">
@@ -27873,7 +28128,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29">
@@ -29901,17 +30156,17 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -29945,17 +30200,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -29989,17 +30244,17 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -30033,17 +30288,17 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -30082,26 +30337,26 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>637</v>
+      <c r="A8" s="25" t="s">
+        <v>665</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="D10" s="15"/>
     </row>

--- a/code/vocab_csv/p7012.xlsx
+++ b/code/vocab_csv/p7012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="719">
   <si>
     <t>Term</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Entity</t>
   </si>
   <si>
-    <t>Entityi</t>
-  </si>
-  <si>
     <t>An entity is any organisation with which a person makes or intends to make a contractual agreement, and which is the second party in a contract</t>
   </si>
   <si>
@@ -179,7 +176,7 @@
     <t>Entity Agent</t>
   </si>
   <si>
-    <t>An Agent that repersents the Entity</t>
+    <t>An Agent that represents the Entity</t>
   </si>
   <si>
     <t>domain</t>
@@ -380,7 +377,7 @@
     <t>Agreement Interaction Record</t>
   </si>
   <si>
-    <t>A record of a interactions conducted in the course of establishing and negotiating agreements, including failed attemps, creation of contracts, and subsequent interactions</t>
+    <t>A record of a interactions conducted in the course of establishing and negotiating agreements, including failed attempts, creation of contracts, and subsequent interactions</t>
   </si>
   <si>
     <t>dpv:RecordsOfActivities</t>
@@ -417,9 +414,6 @@
   </si>
   <si>
     <t>Indicates the inclusion or applicability of the specified Privacy Term Registry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>p7012:AgreementRegistry</t>
@@ -934,7 +928,7 @@
     <t>Tracking Disallowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Term that indicates Tracking by 2nd and 3rd parties is disallowed </t>
+    <t>Term that indicates Tracking by 2nd and 3rd parties is disallowed</t>
   </si>
   <si>
     <t>p7012:TrackingTerm,dpv:Prohibition</t>
@@ -1027,7 +1021,7 @@
     <t>Profiling Disallowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Term that indicates Profiling is not allowed </t>
+    <t>Term that indicates Profiling is not allowed</t>
   </si>
   <si>
     <t>p7012:ProfilingTerm,dpv:Prohibition</t>
@@ -1762,7 +1756,7 @@
     <t>Data Deletion on Request</t>
   </si>
   <si>
-    <t xml:space="preserve">Term that indicates deletion of data is required upon request </t>
+    <t>Term that indicates deletion of data is required upon request</t>
   </si>
   <si>
     <t>DataDeletionNotRequired</t>
@@ -2077,7 +2071,7 @@
     <t>I also think we need to give some thought to 'Purpose = Customer Service' (customer care in DPV at present?). It is largely impossible to have 'service delivery' on its own without having some means to fix problems if/ when they emerge (the role of customer service).</t>
   </si>
   <si>
-    <t>Which purpose is connected to 'anonymous aggregrated sharing' from our original hypothesis?</t>
+    <t>Which purpose is connected to 'anonymous aggregated sharing' from our original hypothesis?</t>
   </si>
   <si>
     <t>hasPrivacyTerm</t>
@@ -2812,16 +2806,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2833,7 +2827,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -2855,19 +2849,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2879,7 +2873,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2901,19 +2895,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -2946,19 +2940,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2970,7 +2964,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2992,19 +2986,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -3037,25 +3031,25 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="11">
@@ -3084,19 +3078,19 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3129,74 +3123,74 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="8">
         <v>45643.0</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="8">
         <v>45643.0</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="8">
         <v>45643.0</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -5287,17 +5281,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -5309,7 +5303,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -5331,17 +5325,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>675</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -5353,7 +5347,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -5375,17 +5369,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -5397,7 +5391,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -5483,7 +5477,7 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5517,10 +5511,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -5530,16 +5524,16 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -7584,13 +7578,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -7605,7 +7599,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -7637,7 +7631,7 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7672,208 +7666,208 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>686</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>688</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K4" s="23"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>690</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>692</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>694</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>696</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>698</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>700</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>702</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>704</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>705</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>707</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>708</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>710</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>711</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>713</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>714</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>716</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>718</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>720</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -9884,13 +9878,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -9905,7 +9899,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -9937,20 +9931,20 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -9961,7 +9955,7 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -9984,20 +9978,20 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -10008,7 +10002,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -10030,20 +10024,20 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -10054,7 +10048,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -10076,20 +10070,20 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -10100,7 +10094,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -10122,20 +10116,20 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -10167,45 +10161,45 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="8">
         <v>45643.0</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -10237,25 +10231,25 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="11">
@@ -10284,20 +10278,20 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="D10" s="15"/>
       <c r="K10" s="23">
         <v>45756.0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -12391,180 +12385,180 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="8">
         <v>45643.0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="K3" s="8">
         <v>45643.0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="8">
         <v>45643.0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="8">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="8">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="8">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -14564,13 +14558,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -14585,7 +14579,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -14617,17 +14611,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
@@ -14639,7 +14633,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -14661,19 +14655,17 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -14685,7 +14677,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -14707,17 +14699,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -14729,7 +14721,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -14751,17 +14743,17 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
@@ -14794,17 +14786,17 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="12"/>
@@ -14837,17 +14829,17 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F7" s="5"/>
       <c r="K7" s="8">
@@ -14855,22 +14847,22 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="8">
@@ -14878,31 +14870,31 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K9" s="8">
         <v>45643.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -16950,13 +16942,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -17006,7 +16998,7 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
@@ -17043,13 +17035,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="4"/>
@@ -17084,13 +17076,13 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -17123,13 +17115,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>168</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -17162,13 +17154,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -17201,13 +17193,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>176</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -17240,13 +17232,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -17279,13 +17271,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>182</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -17318,353 +17310,353 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>189</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N16" s="23">
         <v>45643.0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="N17" s="23">
         <v>45643.0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="G18" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="H18" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N18" s="23">
         <v>45643.0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N19" s="23">
         <v>45643.0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>216</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N20" s="23">
         <v>45643.0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N21" s="23">
         <v>45643.0</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="G22" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>226</v>
-      </c>
       <c r="H22" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N22" s="23">
         <v>45643.0</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>230</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N23" s="23">
         <v>45643.0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>236</v>
-      </c>
       <c r="H24" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N24" s="23">
         <v>45643.0</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>240</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N25" s="23">
         <v>45643.0</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -17679,144 +17671,144 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N28" s="23">
         <v>45643.0</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="D29" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>246</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N29" s="23">
         <v>45643.0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="D30" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N30" s="23">
         <v>45643.0</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>252</v>
-      </c>
       <c r="D31" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N31" s="23">
         <v>45643.0</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="E33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="H33" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N33" s="23">
         <v>45756.0</v>
       </c>
       <c r="P33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="D34" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="E34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="N34" s="23">
         <v>45756.0</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -19794,7 +19786,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -19841,7 +19833,7 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="28"/>
@@ -19908,19 +19900,19 @@
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -19951,16 +19943,16 @@
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="E5" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -20024,19 +20016,19 @@
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -20067,16 +20059,16 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="E8" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -20107,16 +20099,16 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -20147,19 +20139,19 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -20190,19 +20182,19 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -20266,19 +20258,19 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -20291,7 +20283,7 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -20313,16 +20305,16 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -20335,7 +20327,7 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -20357,19 +20349,19 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>300</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -20382,7 +20374,7 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -20404,16 +20396,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="E16" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -20426,7 +20418,7 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -20448,19 +20440,19 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -20473,7 +20465,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -20495,94 +20487,94 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L18" s="8">
         <v>45643.0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L19" s="8">
         <v>45643.0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>317</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L20" s="8">
         <v>45643.0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>320</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L21" s="8">
         <v>45643.0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -20591,203 +20583,203 @@
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>323</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" s="8">
         <v>45643.0</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="L24" s="8">
         <v>45643.0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>331</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L25" s="8">
         <v>45643.0</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="E26" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>335</v>
       </c>
       <c r="L26" s="8">
         <v>45643.0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L27" s="8">
         <v>45643.0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>342</v>
-      </c>
       <c r="D28" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L28" s="8">
         <v>45643.0</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>345</v>
-      </c>
       <c r="D29" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L29" s="8">
         <v>45643.0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>348</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L30" s="8">
         <v>45643.0</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>351</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L31" s="8">
         <v>45643.0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -20796,267 +20788,267 @@
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>354</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" s="8">
         <v>45643.0</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="L34" s="8">
         <v>45643.0</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>362</v>
       </c>
       <c r="L35" s="8">
         <v>45643.0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="D36" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L36" s="8">
         <v>45643.0</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>370</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L37" s="8">
         <v>45643.0</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>373</v>
-      </c>
       <c r="D38" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L38" s="8">
         <v>45643.0</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="D39" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L39" s="8">
         <v>45643.0</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>379</v>
-      </c>
       <c r="D40" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L40" s="8">
         <v>45643.0</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="D41" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L41" s="8">
         <v>45643.0</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>385</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L43" s="8">
         <v>45643.0</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="E44" s="27" t="s">
         <v>387</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>389</v>
       </c>
       <c r="L44" s="8">
         <v>45643.0</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>392</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="27" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L45" s="8">
         <v>45643.0</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -21066,130 +21058,130 @@
     </row>
     <row r="47">
       <c r="A47" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>395</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L47" s="8">
         <v>45643.0</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>398</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L48" s="8">
         <v>45643.0</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>402</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L49" s="8">
         <v>45643.0</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>405</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L50" s="8">
         <v>45643.0</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>408</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L51" s="8">
         <v>45643.0</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>411</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L52" s="8">
         <v>45643.0</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -21199,247 +21191,247 @@
     </row>
     <row r="54">
       <c r="A54" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>413</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>414</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L54" s="8">
         <v>45643.0</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="D55" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>418</v>
-      </c>
       <c r="E55" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L55" s="8">
         <v>45643.0</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>421</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L56" s="8">
         <v>45643.0</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>426</v>
-      </c>
       <c r="E57" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L57" s="8">
         <v>45643.0</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>430</v>
-      </c>
       <c r="E58" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L58" s="8">
         <v>45643.0</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>433</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L59" s="8">
         <v>45643.0</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>436</v>
-      </c>
       <c r="D60" s="27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L60" s="8">
         <v>45643.0</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>437</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>439</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L61" s="8">
         <v>45643.0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>444</v>
-      </c>
       <c r="E62" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L62" s="8">
         <v>45643.0</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>448</v>
-      </c>
       <c r="E63" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L63" s="8">
         <v>45643.0</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>449</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>451</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L64" s="8">
         <v>45643.0</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -21449,88 +21441,88 @@
     </row>
     <row r="66">
       <c r="A66" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>454</v>
-      </c>
       <c r="D66" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L66" s="8">
         <v>45643.0</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>457</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L67" s="8">
         <v>45643.0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>459</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L68" s="8">
         <v>45643.0</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>462</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>464</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L69" s="8">
         <v>45643.0</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -21538,23 +21530,23 @@
     </row>
     <row r="71">
       <c r="A71" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>467</v>
-      </c>
       <c r="D71" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -21565,7 +21557,7 @@
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -21587,17 +21579,17 @@
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F72" s="4"/>
       <c r="H72" s="4"/>
@@ -21609,7 +21601,7 @@
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -21631,19 +21623,19 @@
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="D73" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -21656,7 +21648,7 @@
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -21678,19 +21670,19 @@
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="D74" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -21703,7 +21695,7 @@
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -21725,19 +21717,19 @@
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -21750,7 +21742,7 @@
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -21772,17 +21764,17 @@
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -21795,7 +21787,7 @@
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -21850,19 +21842,19 @@
     </row>
     <row r="78">
       <c r="A78" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>488</v>
-      </c>
       <c r="D78" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -21875,7 +21867,7 @@
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -21897,115 +21889,115 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="E79" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>492</v>
       </c>
       <c r="L79" s="8">
         <v>45643.0</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="D80" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>496</v>
-      </c>
       <c r="E80" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L80" s="8">
         <v>45643.0</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>499</v>
-      </c>
       <c r="D81" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L81" s="8">
         <v>45643.0</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>502</v>
-      </c>
       <c r="D82" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L82" s="8">
         <v>45643.0</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="D83" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>506</v>
       </c>
       <c r="L83" s="8">
         <v>45643.0</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -22014,135 +22006,135 @@
     </row>
     <row r="85">
       <c r="A85" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B85" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>509</v>
-      </c>
       <c r="D85" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L85" s="8">
         <v>45643.0</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="E86" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>513</v>
       </c>
       <c r="L86" s="8">
         <v>45643.0</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="D87" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>517</v>
-      </c>
       <c r="E87" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L87" s="8">
         <v>45643.0</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>520</v>
-      </c>
       <c r="D88" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L88" s="8">
         <v>45643.0</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="D89" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L89" s="8">
         <v>45643.0</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="E90" s="14" t="s">
         <v>525</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>527</v>
       </c>
       <c r="L90" s="8">
         <v>45643.0</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -22151,135 +22143,135 @@
     </row>
     <row r="92">
       <c r="A92" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>530</v>
-      </c>
       <c r="D92" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L92" s="8">
         <v>45643.0</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C93" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="E93" s="14" t="s">
         <v>532</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="L93" s="8">
         <v>45643.0</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="D94" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>538</v>
-      </c>
       <c r="E94" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L94" s="8">
         <v>45643.0</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>541</v>
-      </c>
       <c r="D95" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L95" s="8">
         <v>45643.0</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C96" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>544</v>
-      </c>
       <c r="D96" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L96" s="8">
         <v>45643.0</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>546</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>548</v>
       </c>
       <c r="L97" s="8">
         <v>45643.0</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -22288,135 +22280,135 @@
     </row>
     <row r="99">
       <c r="A99" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="B99" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>551</v>
-      </c>
       <c r="D99" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L99" s="8">
         <v>45643.0</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="E100" s="14" t="s">
         <v>553</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>555</v>
       </c>
       <c r="L100" s="8">
         <v>45643.0</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="D101" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>559</v>
-      </c>
       <c r="E101" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L101" s="8">
         <v>45643.0</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>562</v>
-      </c>
       <c r="D102" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L102" s="8">
         <v>45643.0</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>565</v>
-      </c>
       <c r="D103" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L103" s="8">
         <v>45643.0</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C104" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="E104" s="14" t="s">
         <v>567</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>569</v>
       </c>
       <c r="L104" s="8">
         <v>45643.0</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
@@ -22424,88 +22416,88 @@
     </row>
     <row r="106">
       <c r="A106" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="B106" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>572</v>
-      </c>
       <c r="D106" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L106" s="23">
         <v>45756.0</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>573</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>575</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L107" s="23">
         <v>45756.0</v>
       </c>
       <c r="N107" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C108" s="14" t="s">
         <v>577</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>579</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L108" s="23">
         <v>45756.0</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>580</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>582</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L109" s="23">
         <v>45756.0</v>
       </c>
       <c r="N109" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
@@ -24295,28 +24287,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>589</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>591</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
@@ -24338,7 +24330,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -24350,267 +24342,267 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>595</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="E4" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>595</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="F6" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="H6" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>595</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="G8" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="H8" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>595</v>
-      </c>
       <c r="H9" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="H10" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C11" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>596</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>596</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -24622,80 +24614,80 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17">
@@ -24703,40 +24695,40 @@
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22">
@@ -27788,309 +27780,309 @@
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>608</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="23">
         <v>45643.0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>610</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>612</v>
       </c>
       <c r="K3" s="23">
         <v>45643.0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>615</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K4" s="23">
         <v>45643.0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>618</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>621</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>624</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>627</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>630</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>633</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>636</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>639</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>640</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>642</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>643</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>645</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K14" s="23">
         <v>45643.0</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>648</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K15" s="23">
         <v>45643.0</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>649</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>651</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K16" s="23">
         <v>45643.0</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -30156,17 +30148,17 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -30178,7 +30170,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -30200,17 +30192,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>658</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -30222,7 +30214,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -30244,17 +30236,17 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -30266,7 +30258,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -30288,17 +30280,17 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -30310,7 +30302,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -30338,25 +30330,25 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D10" s="15"/>
     </row>

--- a/code/vocab_csv/p7012.xlsx
+++ b/code/vocab_csv/p7012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="719">
   <si>
     <t>Term</t>
   </si>
@@ -596,7 +596,7 @@
     <t>PrivacyTerm types</t>
   </si>
   <si>
-    <t>SD-BY</t>
+    <t>SD-BASE</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and prohibits Analytics, Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
@@ -608,25 +608,25 @@
     <t>p7012:ServiceDeliveryRequired</t>
   </si>
   <si>
-    <t>SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD BY-DP</t>
+    <t>SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, with an obligation for Data Portability, and prohibits Analytics, Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY</t>
+    <t>p7012:SD-BASE</t>
   </si>
   <si>
     <t>p7012:ServiceDeliveryRequired,p7012:PortabilityRequired</t>
   </si>
   <si>
-    <t>SD-BY-A</t>
-  </si>
-  <si>
-    <t>SD BY-A</t>
+    <t>SD-BASE-A</t>
+  </si>
+  <si>
+    <t>SD BASE-A</t>
   </si>
   <si>
     <t>Term that requires Service Delivery and permits Analytics, and prohibits Analytics by 3rd Party, prohibits Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
@@ -638,28 +638,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:TrackingDisallowed,p7012:ProfilingDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-A-DP</t>
-  </si>
-  <si>
-    <t>SD BY-A-DP</t>
+    <t>SD-BASE-A-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-A-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery and permits Analytics, with an obligation for Data Portability, and prohibits Analytics by 3rd Party, prohibits Tracking or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-A,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-AT</t>
-  </si>
-  <si>
-    <t>SD BY-AT</t>
+    <t>p7012:SD-BASE-A,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-AT</t>
+  </si>
+  <si>
+    <t>SD BASE-AT</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics and Tracking by the 2nd Party, and prohibits Analytics, or Tracking by 3rd Party, prohibits Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-A</t>
+    <t>p7012:SD-BASE-A</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed</t>
@@ -668,28 +668,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:ProfilingDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-AT-DP</t>
-  </si>
-  <si>
-    <t>SD BY-AT-DP</t>
+    <t>SD-BASE-AT-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-AT-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics and Tracking by the 2nd Party, with an obligation for Data Portability, and prohibits Analytics or Tracking by 3rd Party, prohibits Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-AT,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-ATP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP</t>
+    <t>p7012:SD-BASE-AT,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-ATP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd party, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-AT</t>
+    <t>p7012:SD-BASE-AT</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed
@@ -699,28 +699,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:Profiling3PDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-ATP-DP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-DP</t>
+    <t>SD-BASE-ATP-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, with an obligation for Data Portability, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-ATP-S3P</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-S3P</t>
+    <t>p7012:SD-BASE-ATP,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-ATP-S3P</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-S3P</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, and permits sharing data that has been fully anonymised with 3rd Party, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing on non-anonymised data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP</t>
+    <t>p7012:SD-BASE-ATP</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed
@@ -730,16 +730,16 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:Profiling3PDisallowed,p7012:SharingDataNonAnonymised3PDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-ATP-S3P-DP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-S3P-DP</t>
+    <t>SD-BASE-ATP-S3P-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-S3P-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, and permits sharing data that has been fully anonymised with 3rd Party, with an obligation for Data Portability, and prohibits Analytics, Tracking, Profiling by 3rd Party, and prohibits sharing on non-anonymised data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP-S3P,p7012:SD-BY-DP</t>
+    <t>p7012:SD-BASE-ATP-S3P,p7012:SD-BASE-DP</t>
   </si>
   <si>
     <t>Personal Data Contribution</t>
@@ -1801,15 +1801,15 @@
     <t>Any Service</t>
   </si>
   <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>○</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
     <t>These agreements have the individual 'provide' or 'donate' data for a specific purpose/goal</t>
   </si>
   <si>
@@ -1825,13 +1825,13 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Permitted (MAY BE optionally done)</t>
-  </si>
-  <si>
-    <t>Prohibited (MUST NOT be done)</t>
-  </si>
-  <si>
-    <t>Obligation (MUST be done)</t>
+    <t>Obligation / Necessary (MUST be done)</t>
+  </si>
+  <si>
+    <t>Prohibition (MUST NOT be done)</t>
+  </si>
+  <si>
+    <t>Permission / Optional (MAY BE done)</t>
   </si>
   <si>
     <t>AgreementNegotiationStatus</t>
@@ -2445,7 +2445,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -2472,6 +2472,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border/>
@@ -24363,7 +24373,7 @@
         <v>593</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4">
@@ -24389,7 +24399,7 @@
         <v>593</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
@@ -24403,7 +24413,7 @@
         <v>592</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>593</v>
@@ -24415,7 +24425,7 @@
         <v>593</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
@@ -24429,7 +24439,7 @@
         <v>592</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>593</v>
@@ -24441,7 +24451,7 @@
         <v>593</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7">
@@ -24455,10 +24465,10 @@
         <v>592</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>593</v>
@@ -24467,7 +24477,7 @@
         <v>593</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
@@ -24481,10 +24491,10 @@
         <v>592</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>593</v>
@@ -24493,7 +24503,7 @@
         <v>593</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9">
@@ -24507,19 +24517,19 @@
         <v>592</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>593</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
@@ -24533,19 +24543,19 @@
         <v>592</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>593</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11">
@@ -24559,19 +24569,19 @@
         <v>592</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>594</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="12">
@@ -24585,19 +24595,19 @@
         <v>592</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13">
@@ -24620,7 +24630,7 @@
         <v>596</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>593</v>
@@ -24635,7 +24645,7 @@
         <v>593</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15">
@@ -24646,7 +24656,7 @@
         <v>597</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>593</v>
@@ -24661,7 +24671,7 @@
         <v>593</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16">
@@ -24672,7 +24682,7 @@
         <v>598</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>593</v>
@@ -24687,7 +24697,7 @@
         <v>593</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17">
@@ -24700,12 +24710,9 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C19" s="14" t="s">
         <v>600</v>
       </c>
     </row>
@@ -24716,18 +24723,12 @@
       <c r="B20" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>601</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="C21" s="14" t="s">
         <v>602</v>
       </c>
     </row>
@@ -27689,6 +27690,11 @@
   <conditionalFormatting sqref="B3:H12 B14:H51">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(J6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>

--- a/code/vocab_csv/p7012.xlsx
+++ b/code/vocab_csv/p7012.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="719">
   <si>
     <t>Term</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Entity</t>
   </si>
   <si>
-    <t>Entityi</t>
-  </si>
-  <si>
     <t>An entity is any organisation with which a person makes or intends to make a contractual agreement, and which is the second party in a contract</t>
   </si>
   <si>
@@ -179,7 +176,7 @@
     <t>Entity Agent</t>
   </si>
   <si>
-    <t>An Agent that repersents the Entity</t>
+    <t>An Agent that represents the Entity</t>
   </si>
   <si>
     <t>domain</t>
@@ -302,6 +299,15 @@
     <t>Privacy Agents can be human or non-human i.e. machine agents</t>
   </si>
   <si>
+    <t>hasHumanDescription</t>
+  </si>
+  <si>
+    <t>has human description</t>
+  </si>
+  <si>
+    <t>A description intended for humans</t>
+  </si>
+  <si>
     <t>Agreement</t>
   </si>
   <si>
@@ -371,7 +377,7 @@
     <t>Agreement Interaction Record</t>
   </si>
   <si>
-    <t>A record of a interactions conducted in the course of establishing and negotiating agreements, including failed attemps, creation of contracts, and subsequent interactions</t>
+    <t>A record of a interactions conducted in the course of establishing and negotiating agreements, including failed attempts, creation of contracts, and subsequent interactions</t>
   </si>
   <si>
     <t>dpv:RecordsOfActivities</t>
@@ -410,9 +416,6 @@
     <t>Indicates the inclusion or applicability of the specified Privacy Term Registry</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>p7012:AgreementRegistry</t>
   </si>
   <si>
@@ -593,7 +596,7 @@
     <t>PrivacyTerm types</t>
   </si>
   <si>
-    <t>SD-BY</t>
+    <t>SD-BASE</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and prohibits Analytics, Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
@@ -605,25 +608,25 @@
     <t>p7012:ServiceDeliveryRequired</t>
   </si>
   <si>
-    <t>SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD BY-DP</t>
+    <t>SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, with an obligation for Data Portability, and prohibits Analytics, Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY</t>
+    <t>p7012:SD-BASE</t>
   </si>
   <si>
     <t>p7012:ServiceDeliveryRequired,p7012:PortabilityRequired</t>
   </si>
   <si>
-    <t>SD-BY-A</t>
-  </si>
-  <si>
-    <t>SD BY-A</t>
+    <t>SD-BASE-A</t>
+  </si>
+  <si>
+    <t>SD BASE-A</t>
   </si>
   <si>
     <t>Term that requires Service Delivery and permits Analytics, and prohibits Analytics by 3rd Party, prohibits Tracking, or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
@@ -635,28 +638,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:TrackingDisallowed,p7012:ProfilingDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-A-DP</t>
-  </si>
-  <si>
-    <t>SD BY-A-DP</t>
+    <t>SD-BASE-A-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-A-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery and permits Analytics, with an obligation for Data Portability, and prohibits Analytics by 3rd Party, prohibits Tracking or Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-A,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-AT</t>
-  </si>
-  <si>
-    <t>SD BY-AT</t>
+    <t>p7012:SD-BASE-A,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-AT</t>
+  </si>
+  <si>
+    <t>SD BASE-AT</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics and Tracking by the 2nd Party, and prohibits Analytics, or Tracking by 3rd Party, prohibits Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-A</t>
+    <t>p7012:SD-BASE-A</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed</t>
@@ -665,28 +668,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:ProfilingDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-AT-DP</t>
-  </si>
-  <si>
-    <t>SD BY-AT-DP</t>
+    <t>SD-BASE-AT-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-AT-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics and Tracking by the 2nd Party, with an obligation for Data Portability, and prohibits Analytics or Tracking by 3rd Party, prohibits Profiling by 2nd and 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-AT,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-ATP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP</t>
+    <t>p7012:SD-BASE-AT,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-ATP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd party, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-AT</t>
+    <t>p7012:SD-BASE-AT</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed
@@ -696,28 +699,28 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:Profiling3PDisallowed,p7012:DataSharingDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-ATP-DP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-DP</t>
+    <t>SD-BASE-ATP-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, with an obligation for Data Portability, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing any data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP,p7012:SD-BY-DP</t>
-  </si>
-  <si>
-    <t>SD-BY-ATP-S3P</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-S3P</t>
+    <t>p7012:SD-BASE-ATP,p7012:SD-BASE-DP</t>
+  </si>
+  <si>
+    <t>SD-BASE-ATP-S3P</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-S3P</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, and permits sharing data that has been fully anonymised with 3rd Party, and prohibits Analytics, Tracking, or Profiling by 3rd Party, and prohibits sharing on non-anonymised data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP</t>
+    <t>p7012:SD-BASE-ATP</t>
   </si>
   <si>
     <t>p7012:Analytics2PAllowed,p7012:Tracking2PAllowed
@@ -727,16 +730,16 @@
     <t>p7012:Analytics3PDisallowed,p7012:Tracking3PDisallowed,p7012:Profiling3PDisallowed,p7012:SharingDataNonAnonymised3PDisallowed</t>
   </si>
   <si>
-    <t>SD-BY-ATP-S3P-DP</t>
-  </si>
-  <si>
-    <t>SD BY-ATP-S3P-DP</t>
+    <t>SD-BASE-ATP-S3P-DP</t>
+  </si>
+  <si>
+    <t>SD BASE-ATP-S3P-DP</t>
   </si>
   <si>
     <t>Term that requires Service Delivery, and permits Analytics, Tracking, or Profiling by the 2nd Party, and permits sharing data that has been fully anonymised with 3rd Party, with an obligation for Data Portability, and prohibits Analytics, Tracking, Profiling by 3rd Party, and prohibits sharing on non-anonymised data with 3rd Party</t>
   </si>
   <si>
-    <t>p7012:SD-BY-ATP-S3P,p7012:SD-BY-DP</t>
+    <t>p7012:SD-BASE-ATP-S3P,p7012:SD-BASE-DP</t>
   </si>
   <si>
     <t>Personal Data Contribution</t>
@@ -775,6 +778,36 @@
     <t>Term that indicates access to data is being provided for the purposes of Public Good</t>
   </si>
   <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>Trusted Personal Relationship</t>
+  </si>
+  <si>
+    <t>Term that indicates the agreement is between two individual humans regarding services, communication, or other activities as mutually agreed within the agreement</t>
+  </si>
+  <si>
+    <t>p7012:DataSharingDisallowed</t>
+  </si>
+  <si>
+    <t>TPR-IDENTITY-REF</t>
+  </si>
+  <si>
+    <t>Trusted Personal Relationship - Identity Reference</t>
+  </si>
+  <si>
+    <t>Term that indicates an agreement that establishes the identity of a person through an agreement with another human who validates or vouches for the stated identity as belonging to the associated human</t>
+  </si>
+  <si>
+    <t>p7012:TPR</t>
+  </si>
+  <si>
+    <t>dpv:IdentityVerification</t>
+  </si>
+  <si>
+    <t>HumanDescription</t>
+  </si>
+  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -895,7 +928,7 @@
     <t>Tracking Disallowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Term that indicates Tracking by 2nd and 3rd parties is disallowed </t>
+    <t>Term that indicates Tracking by 2nd and 3rd parties is disallowed</t>
   </si>
   <si>
     <t>p7012:TrackingTerm,dpv:Prohibition</t>
@@ -988,7 +1021,7 @@
     <t>Profiling Disallowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Term that indicates Profiling is not allowed </t>
+    <t>Term that indicates Profiling is not allowed</t>
   </si>
   <si>
     <t>p7012:ProfilingTerm,dpv:Prohibition</t>
@@ -1390,6 +1423,9 @@
     <t>Term that indicates portability of data from service provider to individual</t>
   </si>
   <si>
+    <t>Data portability means that you are entitled to ask organisations that hold records about you (your personal data) to be sent in a modern, useful format either to you directly, or to another organisation/ app that you nominate. Examples of that might be your bank transactions (via Open Banking or similar), your home energy use, your vehicle use and many more.</t>
+  </si>
+  <si>
     <t>PortabilityRequired</t>
   </si>
   <si>
@@ -1693,6 +1729,48 @@
     <t>p7012:DataTransparencyTerm</t>
   </si>
   <si>
+    <t>DataDeletionTerm</t>
+  </si>
+  <si>
+    <t>Data Deletion Term</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion regarding data as an obligation</t>
+  </si>
+  <si>
+    <t>DataDeletionRequired</t>
+  </si>
+  <si>
+    <t>Data Deletion Required</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion of data is required after all associated (approved) processing is completed</t>
+  </si>
+  <si>
+    <t>p7012:DataDeletionTerm,dpv:Obligation</t>
+  </si>
+  <si>
+    <t>DataDeletionOnRequest</t>
+  </si>
+  <si>
+    <t>Data Deletion on Request</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion of data is required upon request</t>
+  </si>
+  <si>
+    <t>DataDeletionNotRequired</t>
+  </si>
+  <si>
+    <t>Data Deletion Not Required</t>
+  </si>
+  <si>
+    <t>Term that indicates deletion of data is not required as an obligation</t>
+  </si>
+  <si>
+    <t>p7012:DataDeletionTerm</t>
+  </si>
+  <si>
     <t>Agreement ID</t>
   </si>
   <si>
@@ -1723,15 +1801,15 @@
     <t>Any Service</t>
   </si>
   <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>○</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
     <t>These agreements have the individual 'provide' or 'donate' data for a specific purpose/goal</t>
   </si>
   <si>
@@ -1747,13 +1825,13 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Permitted (MAY BE optionally done)</t>
-  </si>
-  <si>
-    <t>Prohibited (MUST NOT be done)</t>
-  </si>
-  <si>
-    <t>Obligation (MUST be done)</t>
+    <t>Obligation / Necessary (MUST be done)</t>
+  </si>
+  <si>
+    <t>Prohibition (MUST NOT be done)</t>
+  </si>
+  <si>
+    <t>Permission / Optional (MAY BE done)</t>
   </si>
   <si>
     <t>AgreementNegotiationStatus</t>
@@ -1993,7 +2071,7 @@
     <t>I also think we need to give some thought to 'Purpose = Customer Service' (customer care in DPV at present?). It is largely impossible to have 'service delivery' on its own without having some means to fix problems if/ when they emerge (the role of customer service).</t>
   </si>
   <si>
-    <t>Which purpose is connected to 'anonymous aggregrated sharing' from our original hypothesis?</t>
+    <t>Which purpose is connected to 'anonymous aggregated sharing' from our original hypothesis?</t>
   </si>
   <si>
     <t>hasPrivacyTerm</t>
@@ -2312,6 +2390,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -2320,9 +2401,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -2367,7 +2445,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -2394,6 +2472,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFC9DAF8"/>
           <bgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border/>
@@ -2728,16 +2816,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2749,7 +2837,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -2771,19 +2859,19 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2795,7 +2883,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2817,19 +2905,19 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -2862,19 +2950,19 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2886,7 +2974,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2908,19 +2996,19 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -2953,25 +3041,25 @@
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="11">
@@ -3000,19 +3088,19 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3045,74 +3133,74 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="8">
         <v>45643.0</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="8">
         <v>45643.0</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="8">
         <v>45643.0</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -5203,17 +5291,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="D2" s="25"/>
+        <v>669</v>
+      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="5" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -5225,7 +5313,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -5247,17 +5335,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -5269,7 +5357,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -5291,17 +5379,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -5313,7 +5401,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -5398,8 +5486,8 @@
       <c r="AD6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>651</v>
+      <c r="A7" s="25" t="s">
+        <v>677</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5433,10 +5521,10 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -5446,16 +5534,16 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -7500,13 +7588,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -7521,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -7552,8 +7640,8 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>657</v>
+      <c r="A2" s="25" t="s">
+        <v>683</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7588,208 +7676,208 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="K4" s="26"/>
+        <v>687</v>
+      </c>
+      <c r="K4" s="23"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="K5" s="26">
+        <v>691</v>
+      </c>
+      <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="K6" s="26">
+        <v>695</v>
+      </c>
+      <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="K7" s="26">
+        <v>699</v>
+      </c>
+      <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="K8" s="26">
+        <v>387</v>
+      </c>
+      <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K9" s="26">
+        <v>397</v>
+      </c>
+      <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="K10" s="26">
+        <v>416</v>
+      </c>
+      <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K11" s="26">
+        <v>456</v>
+      </c>
+      <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="K12" s="26">
+        <v>715</v>
+      </c>
+      <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="K13" s="26">
+        <v>504</v>
+      </c>
+      <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -9800,13 +9888,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -9821,7 +9909,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -9853,20 +9941,20 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -9877,7 +9965,7 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -9900,20 +9988,20 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -9924,7 +10012,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -9946,20 +10034,20 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -9970,7 +10058,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -9992,20 +10080,20 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -10016,7 +10104,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -10038,20 +10126,20 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -10083,45 +10171,45 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="8">
         <v>45643.0</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -10153,25 +10241,25 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="11">
@@ -10199,7 +10287,22 @@
       <c r="AE9" s="12"/>
     </row>
     <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="D10" s="15"/>
+      <c r="K10" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11">
       <c r="D11" s="15"/>
@@ -12292,180 +12395,180 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="8">
         <v>45643.0</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3" s="8">
         <v>45643.0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="8">
         <v>45643.0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="8">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="8">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="8">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -14465,13 +14568,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>6</v>
@@ -14486,7 +14589,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>11</v>
@@ -14518,17 +14621,17 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="4"/>
@@ -14540,7 +14643,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -14562,19 +14665,17 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
@@ -14586,7 +14687,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -14608,17 +14709,17 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
@@ -14630,7 +14731,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -14652,17 +14753,17 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
@@ -14695,17 +14796,17 @@
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="12"/>
@@ -14738,17 +14839,17 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="5"/>
       <c r="K7" s="8">
@@ -14756,22 +14857,22 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="8">
@@ -14779,31 +14880,31 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K9" s="8">
         <v>45643.0</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -16850,14 +16951,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>157</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -16906,12 +17007,12 @@
       <c r="AG1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>158</v>
+      <c r="A2" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -16944,15 +17045,15 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="25"/>
+        <v>162</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -16985,13 +17086,13 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -17024,13 +17125,13 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -17063,13 +17164,13 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -17102,13 +17203,13 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -17141,13 +17242,13 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -17180,13 +17281,13 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -17219,451 +17320,505 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>189</v>
+      <c r="A15" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="D15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="D16" s="26"/>
       <c r="E16" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N16" s="26">
+        <v>194</v>
+      </c>
+      <c r="N16" s="23">
         <v>45643.0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="26">
+        <v>199</v>
+      </c>
+      <c r="N17" s="23">
         <v>45643.0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N18" s="26">
+        <v>194</v>
+      </c>
+      <c r="N18" s="23">
         <v>45643.0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="H19" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N19" s="26">
+        <v>199</v>
+      </c>
+      <c r="N19" s="23">
         <v>45643.0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N20" s="26">
+        <v>194</v>
+      </c>
+      <c r="N20" s="23">
         <v>45643.0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>213</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N21" s="26">
+        <v>199</v>
+      </c>
+      <c r="N21" s="23">
         <v>45643.0</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N22" s="26">
+        <v>194</v>
+      </c>
+      <c r="N22" s="23">
         <v>45643.0</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>223</v>
-      </c>
       <c r="H23" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N23" s="26">
+        <v>199</v>
+      </c>
+      <c r="N23" s="23">
         <v>45643.0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N24" s="26">
+        <v>194</v>
+      </c>
+      <c r="N24" s="23">
         <v>45643.0</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>233</v>
-      </c>
       <c r="H25" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N25" s="26">
+        <v>199</v>
+      </c>
+      <c r="N25" s="23">
         <v>45643.0</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" s="15"/>
       <c r="E26" s="5"/>
-      <c r="N26" s="26"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27">
       <c r="D27" s="15"/>
       <c r="E27" s="5"/>
-      <c r="N27" s="26"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="5"/>
-      <c r="N28" s="26">
+      <c r="E28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="23">
         <v>45643.0</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N29" s="26">
+        <v>127</v>
+      </c>
+      <c r="N29" s="23">
         <v>45643.0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" s="26">
+        <v>127</v>
+      </c>
+      <c r="N30" s="23">
         <v>45643.0</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="26">
+        <v>127</v>
+      </c>
+      <c r="N31" s="23">
         <v>45643.0</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="N33" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="N34" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
@@ -19618,7 +19773,7 @@
     <col customWidth="1" min="1" max="1" width="29.88"/>
     <col customWidth="1" min="2" max="2" width="17.25"/>
     <col customWidth="1" min="3" max="3" width="69.88"/>
-    <col customWidth="1" min="9" max="9" width="43.13"/>
+    <col customWidth="1" min="10" max="10" width="43.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -19631,44 +19786,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -19682,24 +19839,25 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>250</v>
+      <c r="A2" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -19716,21 +19874,22 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
     </row>
     <row r="3">
       <c r="B3" s="4"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -19747,32 +19906,33 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>252</v>
+      <c r="A4" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -19789,29 +19949,30 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>255</v>
+      <c r="A5" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -19828,10 +19989,11 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
@@ -19840,10 +20002,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -19860,32 +20022,33 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>259</v>
+      <c r="A7" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -19902,29 +20065,30 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -19941,29 +20105,30 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -19980,32 +20145,33 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -20022,32 +20188,33 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -20064,10 +20231,11 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
@@ -20076,10 +20244,10 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -20096,36 +20264,37 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>278</v>
+      <c r="A13" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>289</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="8">
+      <c r="K13" s="4"/>
+      <c r="L13" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -20142,33 +20311,34 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="8">
+      <c r="K14" s="4"/>
+      <c r="L14" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -20185,36 +20355,37 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="8">
+      <c r="K15" s="4"/>
+      <c r="L15" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -20231,33 +20402,34 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="8">
+      <c r="K16" s="4"/>
+      <c r="L16" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -20274,36 +20446,37 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="8">
+      <c r="K17" s="4"/>
+      <c r="L17" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -20320,1079 +20493,1082 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K18" s="8">
+        <v>294</v>
+      </c>
+      <c r="L18" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>20</v>
+      <c r="N18" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K19" s="8">
+        <v>294</v>
+      </c>
+      <c r="L19" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>20</v>
+      <c r="N19" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>20</v>
+      <c r="N20" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" s="8">
+        <v>302</v>
+      </c>
+      <c r="L21" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>20</v>
+      <c r="N21" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
-      <c r="K22" s="8"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>309</v>
+      <c r="A23" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>320</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K23" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="8">
+        <v>325</v>
+      </c>
+      <c r="L24" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>20</v>
+      <c r="N24" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="8">
+        <v>325</v>
+      </c>
+      <c r="L25" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>20</v>
+      <c r="N25" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K26" s="8">
+        <v>333</v>
+      </c>
+      <c r="L26" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>20</v>
+      <c r="N26" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K27" s="8">
+        <v>333</v>
+      </c>
+      <c r="L27" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>20</v>
+      <c r="N27" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>318</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K28" s="8">
+        <v>325</v>
+      </c>
+      <c r="L28" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>20</v>
+      <c r="N28" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="K29" s="8">
+        <v>325</v>
+      </c>
+      <c r="L29" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>20</v>
+      <c r="N29" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="L30" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>20</v>
+      <c r="N30" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="K31" s="8">
+        <v>333</v>
+      </c>
+      <c r="L31" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>20</v>
+      <c r="N31" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
-      <c r="K32" s="8"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="8"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>340</v>
+      <c r="A33" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K33" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K34" s="8">
+        <v>356</v>
+      </c>
+      <c r="L34" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>20</v>
+      <c r="N34" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K35" s="8">
+        <v>360</v>
+      </c>
+      <c r="L35" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>20</v>
+      <c r="N35" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K36" s="8">
+        <v>360</v>
+      </c>
+      <c r="L36" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>20</v>
+      <c r="N36" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K37" s="8">
+      <c r="L37" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>20</v>
+      <c r="N37" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C38" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K38" s="8">
+      <c r="L38" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>20</v>
+      <c r="N38" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="K39" s="8">
+        <v>356</v>
+      </c>
+      <c r="L39" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>20</v>
+      <c r="N39" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>353</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K40" s="8">
+        <v>360</v>
+      </c>
+      <c r="L40" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>20</v>
+      <c r="N40" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="K41" s="8">
+        <v>360</v>
+      </c>
+      <c r="L41" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>20</v>
+      <c r="N41" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>371</v>
+      <c r="A43" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K43" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="K44" s="8">
+        <v>387</v>
+      </c>
+      <c r="L44" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>20</v>
+      <c r="N44" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="K45" s="8">
+        <v>387</v>
+      </c>
+      <c r="L45" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>20</v>
+      <c r="N45" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" s="15"/>
-      <c r="K46" s="8"/>
-      <c r="M46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>381</v>
+      <c r="A47" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K47" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K48" s="8">
+        <v>397</v>
+      </c>
+      <c r="L48" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>20</v>
+      <c r="N48" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K49" s="8">
+        <v>397</v>
+      </c>
+      <c r="L49" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>20</v>
+      <c r="N49" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K50" s="8">
+        <v>397</v>
+      </c>
+      <c r="L50" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>20</v>
+      <c r="N50" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K51" s="8">
+        <v>397</v>
+      </c>
+      <c r="L51" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>20</v>
+      <c r="N51" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K52" s="8">
+        <v>397</v>
+      </c>
+      <c r="L52" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>20</v>
+      <c r="N52" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" s="15"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="8"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>400</v>
+      <c r="A54" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>411</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K54" s="8">
+    </row>
+    <row r="55">
+      <c r="A55" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="N55" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K55" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K56" s="8">
+        <v>420</v>
+      </c>
+      <c r="L56" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>20</v>
+      <c r="N56" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K57" s="8">
+        <v>420</v>
+      </c>
+      <c r="L57" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>20</v>
+      <c r="N57" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K58" s="8">
+        <v>420</v>
+      </c>
+      <c r="L58" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>20</v>
+      <c r="N58" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="K59" s="8">
+        <v>420</v>
+      </c>
+      <c r="L59" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>20</v>
+      <c r="N59" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>422</v>
+      <c r="A60" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N60" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K60" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K61" s="8">
+        <v>438</v>
+      </c>
+      <c r="L61" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>20</v>
+      <c r="N61" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K62" s="8">
+        <v>438</v>
+      </c>
+      <c r="L62" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>20</v>
+      <c r="N62" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K63" s="8">
+        <v>438</v>
+      </c>
+      <c r="L63" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M63" s="5" t="s">
-        <v>20</v>
+      <c r="N63" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K64" s="8">
+        <v>438</v>
+      </c>
+      <c r="L64" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>20</v>
+      <c r="N64" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="D65" s="15"/>
-      <c r="K65" s="8"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="8"/>
+      <c r="N65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>440</v>
+      <c r="A66" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>451</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K66" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K67" s="8">
+        <v>456</v>
+      </c>
+      <c r="L67" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>20</v>
+      <c r="N67" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K68" s="8">
+        <v>456</v>
+      </c>
+      <c r="L68" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>20</v>
+      <c r="N68" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="K69" s="8">
+        <v>456</v>
+      </c>
+      <c r="L69" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>20</v>
+      <c r="N69" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" s="15"/>
     </row>
     <row r="71">
-      <c r="A71" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>453</v>
+      <c r="A71" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>464</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="8">
+      <c r="K71" s="4"/>
+      <c r="L71" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
@@ -21409,34 +21585,34 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D72" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="D72" s="26"/>
       <c r="E72" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="8">
+      <c r="K72" s="4"/>
+      <c r="L72" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
@@ -21453,36 +21629,37 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="8">
+      <c r="K73" s="4"/>
+      <c r="L73" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -21499,36 +21676,37 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="8">
+      <c r="K74" s="4"/>
+      <c r="L74" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
@@ -21545,36 +21723,37 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="8">
+      <c r="K75" s="4"/>
+      <c r="L75" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
@@ -21591,34 +21770,35 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="8">
+      <c r="K76" s="4"/>
+      <c r="L76" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -21635,6 +21815,7 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
@@ -21647,10 +21828,10 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="5"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -21667,36 +21848,37 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>473</v>
+      <c r="A78" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>485</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="8">
+      <c r="K78" s="4"/>
+      <c r="L78" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -21713,545 +21895,620 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K79" s="8">
+        <v>490</v>
+      </c>
+      <c r="L79" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="5" t="s">
-        <v>20</v>
+      <c r="M79" s="4"/>
+      <c r="N79" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K80" s="8">
+        <v>490</v>
+      </c>
+      <c r="L80" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>20</v>
+      <c r="N80" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K81" s="8">
+        <v>490</v>
+      </c>
+      <c r="L81" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>20</v>
+      <c r="N81" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K82" s="8">
+        <v>490</v>
+      </c>
+      <c r="L82" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>20</v>
+      <c r="N82" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="K83" s="8">
+        <v>504</v>
+      </c>
+      <c r="L83" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>20</v>
+      <c r="N83" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="84">
-      <c r="K84" s="8"/>
-      <c r="M84" s="5"/>
+      <c r="L84" s="8"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>494</v>
+      <c r="A85" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N85" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K85" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K86" s="8">
+        <v>511</v>
+      </c>
+      <c r="L86" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="5" t="s">
-        <v>20</v>
+      <c r="M86" s="4"/>
+      <c r="N86" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K87" s="8">
+        <v>511</v>
+      </c>
+      <c r="L87" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>20</v>
+      <c r="N87" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K88" s="8">
+        <v>511</v>
+      </c>
+      <c r="L88" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>20</v>
+      <c r="N88" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="K89" s="8">
+        <v>511</v>
+      </c>
+      <c r="L89" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>20</v>
+      <c r="N89" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="K90" s="8">
+        <v>525</v>
+      </c>
+      <c r="L90" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>20</v>
+      <c r="N90" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91">
-      <c r="K91" s="8"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="8"/>
+      <c r="N91" s="5"/>
     </row>
     <row r="92">
-      <c r="A92" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>515</v>
+      <c r="A92" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>527</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N92" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K92" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K93" s="8">
+        <v>532</v>
+      </c>
+      <c r="L93" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="5" t="s">
-        <v>20</v>
+      <c r="M93" s="4"/>
+      <c r="N93" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K94" s="8">
+        <v>532</v>
+      </c>
+      <c r="L94" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>20</v>
+      <c r="N94" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" s="8">
+        <v>532</v>
+      </c>
+      <c r="L95" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>20</v>
+      <c r="N95" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="K96" s="8">
+        <v>532</v>
+      </c>
+      <c r="L96" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>20</v>
+      <c r="N96" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="K97" s="8">
+        <v>546</v>
+      </c>
+      <c r="L97" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>20</v>
+      <c r="N97" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="98">
-      <c r="K98" s="8"/>
-      <c r="M98" s="5"/>
+      <c r="L98" s="8"/>
+      <c r="N98" s="5"/>
     </row>
     <row r="99">
-      <c r="A99" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>536</v>
+      <c r="A99" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>548</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E99" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="8">
+        <v>45643.0</v>
+      </c>
+      <c r="N99" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K99" s="8">
-        <v>45643.0</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K100" s="8">
+        <v>553</v>
+      </c>
+      <c r="L100" s="8">
         <v>45643.0</v>
       </c>
-      <c r="L100" s="4"/>
-      <c r="M100" s="5" t="s">
-        <v>20</v>
+      <c r="M100" s="4"/>
+      <c r="N100" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K101" s="8">
+        <v>553</v>
+      </c>
+      <c r="L101" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>20</v>
+      <c r="N101" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K102" s="8">
+        <v>553</v>
+      </c>
+      <c r="L102" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>20</v>
+      <c r="N102" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="K103" s="8">
+        <v>553</v>
+      </c>
+      <c r="L103" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>20</v>
+      <c r="N103" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>555</v>
-      </c>
-      <c r="K104" s="8">
+        <v>567</v>
+      </c>
+      <c r="L104" s="8">
         <v>45643.0</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>20</v>
+      <c r="N104" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="D105" s="15"/>
     </row>
     <row r="106">
-      <c r="D106" s="15"/>
+      <c r="A106" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="107">
+      <c r="A107" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="D107" s="15"/>
+      <c r="E107" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="L107" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="108">
+      <c r="A108" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="D108" s="15"/>
+      <c r="E108" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="L108" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="109">
+      <c r="A109" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="D109" s="15"/>
+      <c r="E109" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="L109" s="23">
+        <v>45756.0</v>
+      </c>
+      <c r="N109" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="110">
       <c r="D110" s="15"/>
@@ -24040,28 +24297,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
@@ -24083,7 +24340,7 @@
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -24095,267 +24352,267 @@
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="39" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -24367,121 +24624,112 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="32"/>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
-        <v>573</v>
+      <c r="A18" s="25" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="s">
-        <v>566</v>
+      <c r="A21" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22">
@@ -27442,6 +27690,11 @@
   <conditionalFormatting sqref="B3:H12 B14:H51">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(J6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -27532,310 +27785,310 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>577</v>
+      <c r="A2" s="25" t="s">
+        <v>603</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="23">
+        <v>45643.0</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="26">
-        <v>45643.0</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K3" s="26">
+        <v>610</v>
+      </c>
+      <c r="K3" s="23">
         <v>45643.0</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K4" s="26">
+        <v>610</v>
+      </c>
+      <c r="K4" s="23">
         <v>45643.0</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K5" s="26">
+        <v>610</v>
+      </c>
+      <c r="K5" s="23">
         <v>45643.0</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K6" s="26">
+        <v>610</v>
+      </c>
+      <c r="K6" s="23">
         <v>45643.0</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K7" s="26">
+        <v>610</v>
+      </c>
+      <c r="K7" s="23">
         <v>45643.0</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K8" s="26">
+        <v>610</v>
+      </c>
+      <c r="K8" s="23">
         <v>45643.0</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K9" s="26">
+        <v>610</v>
+      </c>
+      <c r="K9" s="23">
         <v>45643.0</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K10" s="26">
+        <v>610</v>
+      </c>
+      <c r="K10" s="23">
         <v>45643.0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K11" s="26">
+        <v>610</v>
+      </c>
+      <c r="K11" s="23">
         <v>45643.0</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K12" s="26">
+      <c r="K12" s="23">
         <v>45643.0</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K13" s="26">
+        <v>610</v>
+      </c>
+      <c r="K13" s="23">
         <v>45643.0</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K14" s="26">
+        <v>610</v>
+      </c>
+      <c r="K14" s="23">
         <v>45643.0</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K15" s="26">
+        <v>610</v>
+      </c>
+      <c r="K15" s="23">
         <v>45643.0</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="K16" s="26">
+        <v>610</v>
+      </c>
+      <c r="K16" s="23">
         <v>45643.0</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -27848,7 +28101,7 @@
       <c r="D19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21">
@@ -27873,7 +28126,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29">
@@ -29901,17 +30154,17 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -29923,7 +30176,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -29945,17 +30198,17 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -29967,7 +30220,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -29989,17 +30242,17 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -30011,7 +30264,7 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -30033,17 +30286,17 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -30055,7 +30308,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -30082,26 +30335,26 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>637</v>
+      <c r="A8" s="25" t="s">
+        <v>663</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="D10" s="15"/>
     </row>
